--- a/contratos/contratos-4-2013.xlsx
+++ b/contratos/contratos-4-2013.xlsx
@@ -670,7 +670,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MAGRI HECTOR RAMON</t>
@@ -760,10 +760,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>BURGOS DANIEL RAUL</t>
@@ -781,7 +781,7 @@
     <t>GOMEZ ALEJANDRO JUAN MARTIN</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>LEON BANCHIK S.A.</t>
@@ -793,7 +793,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>FERREYRA EDUARDO FEDERICO</t>
@@ -889,7 +889,7 @@
     <t>RODE NELSON FEDERICO</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>FORCLAZ CECILIO ISMAEL. SUCESION</t>
@@ -901,7 +901,7 @@
     <t>LAMBERT CARLOS MIGUEL</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -919,7 +919,7 @@
     <t>MOLINA SONIA NOEMI</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1318,610 +1318,610 @@
     <t>141</t>
   </si>
   <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>3.020,00</t>
-  </si>
-  <si>
-    <t>12.438,00</t>
-  </si>
-  <si>
-    <t>158,00</t>
-  </si>
-  <si>
-    <t>23.697,53</t>
-  </si>
-  <si>
-    <t>919,98</t>
-  </si>
-  <si>
-    <t>3.090,00</t>
-  </si>
-  <si>
-    <t>37.139,22</t>
-  </si>
-  <si>
-    <t>66.558,50</t>
-  </si>
-  <si>
-    <t>5.750,00</t>
-  </si>
-  <si>
-    <t>2.881,20</t>
-  </si>
-  <si>
-    <t>42.470,02</t>
-  </si>
-  <si>
-    <t>14.723,20</t>
-  </si>
-  <si>
-    <t>745,98</t>
-  </si>
-  <si>
-    <t>24.869,95</t>
-  </si>
-  <si>
-    <t>10.528,76</t>
-  </si>
-  <si>
-    <t>117,00</t>
-  </si>
-  <si>
-    <t>3.060,00</t>
-  </si>
-  <si>
-    <t>541,64</t>
-  </si>
-  <si>
-    <t>3.377,70</t>
-  </si>
-  <si>
-    <t>60,72</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>39.556,00</t>
-  </si>
-  <si>
-    <t>7.931,39</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>835,30</t>
-  </si>
-  <si>
-    <t>38,34</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>8.865,06</t>
-  </si>
-  <si>
-    <t>199,76</t>
-  </si>
-  <si>
-    <t>14,41</t>
-  </si>
-  <si>
-    <t>217,00</t>
-  </si>
-  <si>
-    <t>13.104,50</t>
-  </si>
-  <si>
-    <t>3.130,00</t>
-  </si>
-  <si>
-    <t>15.600,00</t>
-  </si>
-  <si>
-    <t>12.309,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>7.486,57</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>465,68</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>180,16</t>
-  </si>
-  <si>
-    <t>2.489,00</t>
-  </si>
-  <si>
-    <t>613,30</t>
-  </si>
-  <si>
-    <t>34,72</t>
-  </si>
-  <si>
-    <t>152,00</t>
-  </si>
-  <si>
-    <t>61,73</t>
-  </si>
-  <si>
-    <t>73,90</t>
-  </si>
-  <si>
-    <t>1.540,15</t>
-  </si>
-  <si>
-    <t>3.616,84</t>
-  </si>
-  <si>
-    <t>1.063,30</t>
-  </si>
-  <si>
-    <t>2.053,00</t>
-  </si>
-  <si>
-    <t>548,00</t>
-  </si>
-  <si>
-    <t>1.216,43</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>4.630,20</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>1.466,74</t>
-  </si>
-  <si>
-    <t>286,50</t>
-  </si>
-  <si>
-    <t>396,04</t>
-  </si>
-  <si>
-    <t>10.072,68</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>4.352,37</t>
-  </si>
-  <si>
-    <t>252,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.902,00</t>
-  </si>
-  <si>
-    <t>854,00</t>
-  </si>
-  <si>
-    <t>925,00</t>
-  </si>
-  <si>
-    <t>415,00</t>
-  </si>
-  <si>
-    <t>2.340,88</t>
-  </si>
-  <si>
-    <t>2.572,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>86,20</t>
-  </si>
-  <si>
-    <t>260.000,00</t>
-  </si>
-  <si>
-    <t>61.589,50</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>25,81</t>
-  </si>
-  <si>
-    <t>406,29</t>
-  </si>
-  <si>
-    <t>136,20</t>
-  </si>
-  <si>
-    <t>5.968,60</t>
-  </si>
-  <si>
-    <t>178,00</t>
-  </si>
-  <si>
-    <t>7.274,28</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>83,70</t>
-  </si>
-  <si>
-    <t>6.604,25</t>
-  </si>
-  <si>
-    <t>1.863,86</t>
-  </si>
-  <si>
-    <t>25,02</t>
-  </si>
-  <si>
-    <t>1.182,95</t>
-  </si>
-  <si>
-    <t>14,99</t>
-  </si>
-  <si>
-    <t>348,00</t>
-  </si>
-  <si>
-    <t>2.152,00</t>
-  </si>
-  <si>
-    <t>237,51</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>2.310,00</t>
-  </si>
-  <si>
-    <t>920,00</t>
-  </si>
-  <si>
-    <t>30.876,00</t>
-  </si>
-  <si>
-    <t>25.680,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.680,30</t>
-  </si>
-  <si>
-    <t>4.892,46</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>1.492,50</t>
-  </si>
-  <si>
-    <t>111,60</t>
-  </si>
-  <si>
-    <t>387,00</t>
-  </si>
-  <si>
-    <t>3.245,10</t>
-  </si>
-  <si>
-    <t>98.250,00</t>
-  </si>
-  <si>
-    <t>122.640,00</t>
-  </si>
-  <si>
-    <t>17.868,61</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>2.210,00</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>23.364,90</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>7.400,00</t>
-  </si>
-  <si>
-    <t>3.334,27</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>8.480,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>6.570,00</t>
-  </si>
-  <si>
-    <t>33.202,50</t>
-  </si>
-  <si>
-    <t>356,00</t>
-  </si>
-  <si>
-    <t>2.096,00</t>
-  </si>
-  <si>
-    <t>2.855,00</t>
-  </si>
-  <si>
-    <t>870,00</t>
-  </si>
-  <si>
-    <t>1.578,34</t>
-  </si>
-  <si>
-    <t>10.811,00</t>
-  </si>
-  <si>
-    <t>2.925,00</t>
-  </si>
-  <si>
-    <t>205,00</t>
-  </si>
-  <si>
-    <t>325,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>10.931,40</t>
-  </si>
-  <si>
-    <t>269,68</t>
-  </si>
-  <si>
-    <t>155,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>298,56</t>
-  </si>
-  <si>
-    <t>3.375,63</t>
-  </si>
-  <si>
-    <t>4.262,66</t>
-  </si>
-  <si>
-    <t>544,49</t>
-  </si>
-  <si>
-    <t>664,00</t>
-  </si>
-  <si>
-    <t>2.977,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>2.625,00</t>
-  </si>
-  <si>
-    <t>1.147,55</t>
-  </si>
-  <si>
-    <t>148,93</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>3.822,97</t>
-  </si>
-  <si>
-    <t>1.893,20</t>
-  </si>
-  <si>
-    <t>8.728,25</t>
-  </si>
-  <si>
-    <t>179,90</t>
-  </si>
-  <si>
-    <t>4.408,00</t>
-  </si>
-  <si>
-    <t>6.136,80</t>
-  </si>
-  <si>
-    <t>946,00</t>
-  </si>
-  <si>
-    <t>774,00</t>
-  </si>
-  <si>
-    <t>146.287,42</t>
-  </si>
-  <si>
-    <t>3.640,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>1.197.387,98</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>33.800,00</t>
-  </si>
-  <si>
-    <t>7.410,28</t>
-  </si>
-  <si>
-    <t>20.650,00</t>
-  </si>
-  <si>
-    <t>136.500,00</t>
-  </si>
-  <si>
-    <t>62.500,00</t>
-  </si>
-  <si>
-    <t>37.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>234.201,00</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>111.500,00</t>
-  </si>
-  <si>
-    <t>211.799,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>391.005,45</t>
-  </si>
-  <si>
-    <t>153.334,75</t>
-  </si>
-  <si>
-    <t>756,25</t>
-  </si>
-  <si>
-    <t>66.247,50</t>
-  </si>
-  <si>
-    <t>27.225,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>26.236,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>4.747,00</t>
-  </si>
-  <si>
-    <t>1.545,00</t>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>3020.00</t>
+  </si>
+  <si>
+    <t>12438.00</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>23697.53</t>
+  </si>
+  <si>
+    <t>919.98</t>
+  </si>
+  <si>
+    <t>3090.00</t>
+  </si>
+  <si>
+    <t>37139.22</t>
+  </si>
+  <si>
+    <t>66558.50</t>
+  </si>
+  <si>
+    <t>5750.00</t>
+  </si>
+  <si>
+    <t>2881.20</t>
+  </si>
+  <si>
+    <t>42470.02</t>
+  </si>
+  <si>
+    <t>14723.20</t>
+  </si>
+  <si>
+    <t>745.98</t>
+  </si>
+  <si>
+    <t>24869.95</t>
+  </si>
+  <si>
+    <t>10528.76</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>3060.00</t>
+  </si>
+  <si>
+    <t>541.64</t>
+  </si>
+  <si>
+    <t>3377.70</t>
+  </si>
+  <si>
+    <t>60.72</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>39556.00</t>
+  </si>
+  <si>
+    <t>7931.39</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>835.30</t>
+  </si>
+  <si>
+    <t>38.34</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>8865.06</t>
+  </si>
+  <si>
+    <t>199.76</t>
+  </si>
+  <si>
+    <t>14.41</t>
+  </si>
+  <si>
+    <t>217.00</t>
+  </si>
+  <si>
+    <t>13104.50</t>
+  </si>
+  <si>
+    <t>3130.00</t>
+  </si>
+  <si>
+    <t>15600.00</t>
+  </si>
+  <si>
+    <t>12309.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>7486.57</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>465.68</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>180.16</t>
+  </si>
+  <si>
+    <t>2489.00</t>
+  </si>
+  <si>
+    <t>613.30</t>
+  </si>
+  <si>
+    <t>34.72</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>61.73</t>
+  </si>
+  <si>
+    <t>73.90</t>
+  </si>
+  <si>
+    <t>1540.15</t>
+  </si>
+  <si>
+    <t>3616.84</t>
+  </si>
+  <si>
+    <t>1063.30</t>
+  </si>
+  <si>
+    <t>2053.00</t>
+  </si>
+  <si>
+    <t>548.00</t>
+  </si>
+  <si>
+    <t>1216.43</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>4630.20</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>1466.74</t>
+  </si>
+  <si>
+    <t>286.50</t>
+  </si>
+  <si>
+    <t>396.04</t>
+  </si>
+  <si>
+    <t>10072.68</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>4352.37</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1902.00</t>
+  </si>
+  <si>
+    <t>854.00</t>
+  </si>
+  <si>
+    <t>925.00</t>
+  </si>
+  <si>
+    <t>415.00</t>
+  </si>
+  <si>
+    <t>2340.88</t>
+  </si>
+  <si>
+    <t>2572.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>86.20</t>
+  </si>
+  <si>
+    <t>260000.00</t>
+  </si>
+  <si>
+    <t>61589.50</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>25.81</t>
+  </si>
+  <si>
+    <t>406.29</t>
+  </si>
+  <si>
+    <t>136.20</t>
+  </si>
+  <si>
+    <t>5968.60</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>7274.28</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>83.70</t>
+  </si>
+  <si>
+    <t>6604.25</t>
+  </si>
+  <si>
+    <t>1863.86</t>
+  </si>
+  <si>
+    <t>25.02</t>
+  </si>
+  <si>
+    <t>1182.95</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>2152.00</t>
+  </si>
+  <si>
+    <t>237.51</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>2310.00</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>30876.00</t>
+  </si>
+  <si>
+    <t>25680.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1680.30</t>
+  </si>
+  <si>
+    <t>4892.46</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>1492.50</t>
+  </si>
+  <si>
+    <t>111.60</t>
+  </si>
+  <si>
+    <t>387.00</t>
+  </si>
+  <si>
+    <t>3245.10</t>
+  </si>
+  <si>
+    <t>98250.00</t>
+  </si>
+  <si>
+    <t>122640.00</t>
+  </si>
+  <si>
+    <t>17868.61</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>2210.00</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>23364.90</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>7400.00</t>
+  </si>
+  <si>
+    <t>3334.27</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>8480.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>6570.00</t>
+  </si>
+  <si>
+    <t>33202.50</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>2096.00</t>
+  </si>
+  <si>
+    <t>2855.00</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>1578.34</t>
+  </si>
+  <si>
+    <t>10811.00</t>
+  </si>
+  <si>
+    <t>2925.00</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>10931.40</t>
+  </si>
+  <si>
+    <t>269.68</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>298.56</t>
+  </si>
+  <si>
+    <t>3375.63</t>
+  </si>
+  <si>
+    <t>4262.66</t>
+  </si>
+  <si>
+    <t>544.49</t>
+  </si>
+  <si>
+    <t>664.00</t>
+  </si>
+  <si>
+    <t>2977.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>2625.00</t>
+  </si>
+  <si>
+    <t>1147.55</t>
+  </si>
+  <si>
+    <t>148.93</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>3822.97</t>
+  </si>
+  <si>
+    <t>1893.20</t>
+  </si>
+  <si>
+    <t>8728.25</t>
+  </si>
+  <si>
+    <t>179.90</t>
+  </si>
+  <si>
+    <t>4408.00</t>
+  </si>
+  <si>
+    <t>6136.80</t>
+  </si>
+  <si>
+    <t>946.00</t>
+  </si>
+  <si>
+    <t>774.00</t>
+  </si>
+  <si>
+    <t>146287.42</t>
+  </si>
+  <si>
+    <t>3640.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>1197387.98</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>33800.00</t>
+  </si>
+  <si>
+    <t>7410.28</t>
+  </si>
+  <si>
+    <t>20650.00</t>
+  </si>
+  <si>
+    <t>136500.00</t>
+  </si>
+  <si>
+    <t>62500.00</t>
+  </si>
+  <si>
+    <t>37000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>234201.00</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>211799.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>391005.45</t>
+  </si>
+  <si>
+    <t>153334.75</t>
+  </si>
+  <si>
+    <t>756.25</t>
+  </si>
+  <si>
+    <t>66247.50</t>
+  </si>
+  <si>
+    <t>27225.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>26236.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>4747.00</t>
+  </si>
+  <si>
+    <t>1545.00</t>
   </si>
 </sst>
 </file>
